--- a/4. Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2026/Tháng 01/03. Xác nhận bảo hành/XNBH_.xlsx
+++ b/4. Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2026/Tháng 01/03. Xác nhận bảo hành/XNBH_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2024\Thang1\05.XNBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4. Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2025\Tháng 12\03. Xác nhận bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,12 +71,6 @@
     <t>Trần Thị Thu Hà</t>
   </si>
   <si>
-    <t>Nguyễn Thị Hoa</t>
-  </si>
-  <si>
-    <t>TP.KTTH</t>
-  </si>
-  <si>
     <t>Địa chỉ:</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t xml:space="preserve">                                        </t>
   </si>
   <si>
-    <t>Kế Toán Kho</t>
-  </si>
-  <si>
     <t>Công Ty CP Công Nghệ Điện Tử &amp; Viễn Thông Việt Nam</t>
   </si>
   <si>
@@ -104,47 +95,56 @@
     <t>Số điện thoại:</t>
   </si>
   <si>
-    <t>Lỗi phần cứng</t>
-  </si>
-  <si>
-    <t>Người đại diện: Đại lý Gia Thành</t>
-  </si>
-  <si>
-    <t>Anten GPS VNSH01</t>
-  </si>
-  <si>
-    <t>SL: 2</t>
-  </si>
-  <si>
-    <t>Đổi thiết bị mới</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hà Nội, ngày 02 tháng 01 Năm 2024</t>
-  </si>
-  <si>
-    <t>TP. PT Sản Phẩm</t>
-  </si>
-  <si>
-    <t>Nguyễn Tất Hào</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Tùng</t>
-  </si>
-  <si>
-    <t>Anten GPS chốt rất chậm</t>
-  </si>
-  <si>
-    <t>Người Lập</t>
+    <t>Trần Văn Hậu</t>
+  </si>
+  <si>
+    <t>TP. KTTH</t>
+  </si>
+  <si>
+    <t>TP. Kỹ thuật</t>
+  </si>
+  <si>
+    <t>Kế toán kho</t>
+  </si>
+  <si>
+    <t>Người lập</t>
+  </si>
+  <si>
+    <t>Đào Văn Thông</t>
+  </si>
+  <si>
+    <t>Đặng Ngọc Mai</t>
+  </si>
+  <si>
+    <t>VNSH02</t>
+  </si>
+  <si>
+    <t>Người đại diện: Đại lý Anh Thái Quy Nhơn</t>
+  </si>
+  <si>
+    <t>Đổi thiết bị mới (BPKT báo đổi)</t>
+  </si>
+  <si>
+    <t>003200AE46</t>
+  </si>
+  <si>
+    <t>Thiết bị thường xuyên mất GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hà Nội, ngày 19 tháng 12 Năm 2025</t>
+  </si>
+  <si>
+    <t>Chưa rõ nguyên nhân</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,12 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="9.35"/>
       <color theme="10"/>
@@ -214,14 +208,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -245,18 +231,54 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <i/>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -277,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -301,19 +323,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -420,193 +429,208 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,13 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -979,200 +1000,200 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="11" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+    <row r="1" spans="1:13" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="46" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="A6" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="A7" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="A8" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="M8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
       <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+    <row r="12" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
         <v>1</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="31" t="s">
+      <c r="B12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>26</v>
+      <c r="C12" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1187,118 +1208,146 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="38"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="37"/>
+    </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1317,17 +1366,17 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H21:I21"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D21:F21"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="1.4960629921259843" bottom="0.98425196850393704" header="0.43307086614173229" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
